--- a/src/test/resources/testcasesdata/TestCasesData.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesData.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Assignment2-TestNG-Selenium-IndexNo.22550119-MIT4201SoftwareQualityAssurance\src\test\resources\testcasesdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E0BAB0-4030-4337-B6DD-01F5072FBA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC102CA-EC6E-441E-BAD7-ADE1DFFEE61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCasesData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>
@@ -33,13 +33,14 @@
     <t>Samsung</t>
   </si>
   <si>
-    <t>Samsung is the phone</t>
+    <t>Samsung is the good phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,24 +355,24 @@
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.54296875"/>
+    <col min="2" max="2" customWidth="true" width="12.90625"/>
+    <col min="3" max="3" customWidth="true" width="26.1796875"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>2</v>
       </c>
     </row>

--- a/src/test/resources/testcasesdata/TestCasesData.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdata/TestCasesData.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdata/TestCasesData.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdata/TestCasesData.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>
